--- a/biology/Botanique/Anadenanthera_colubrina/Anadenanthera_colubrina.xlsx
+++ b/biology/Botanique/Anadenanthera_colubrina/Anadenanthera_colubrina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anadenanthera colubrina, également connu sous les noms locaux de vilca, huilco, huilca, wilco, willka, curupay, curupau, cebil, ou angico, est une espèce végétale de la famille des Fabacées. Cet arbre atteint 12 à 15 mètres de hauteur et le tronc mesure 50 cm de diamètre. Il apprécie les sols riches, sableux ou argileux.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Arbre adulte
@@ -547,12 +561,14 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (14 janvier 2017)[3] et Tropicos                                           (14 janvier 2017)[4]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (14 janvier 2017) et Tropicos                                           (14 janvier 2017):
 variété Anadenanthera colubrina var. cebil (Griseb.) Altschul
 variété Anadenanthera colubrina var. colubrina
-Selon NCBI  (14 janvier 2017)[5] et The Plant List            (14 janvier 2017)[2] :
+Selon NCBI  (14 janvier 2017) et The Plant List            (14 janvier 2017) :
 variété Anadenanthera colubrina var. cebil</t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écorce est utilisée comme cicatrisant et anti-hémorragique. Elle est riche en tanins et peut être utilisée dans le tannage.
 Les graines de l'arbre contiennent de la bufoténine et sont utilisées comme hallucinogène et enthéogène.
